--- a/Country_Data/Denmark Inbound Bednight Data.xlsx
+++ b/Country_Data/Denmark Inbound Bednight Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D0134-A3AF-45F6-99F6-2D229C805EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8BEC8-328A-4475-90C1-DAD7C680A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4">
         <v>69277</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4">
         <v>70627</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4">
         <v>386651</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4">
         <v>15905</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="4">
         <v>18820</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4">
         <v>39551</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4">
         <v>17911</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="4">
         <v>6959</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4">
         <v>2322349</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="4">
         <v>219376</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="4">
         <v>52278</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4">
         <v>56339</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="4">
         <v>87551</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4">
         <v>293742</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4">
         <v>20964</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4">
         <v>15195</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="4">
         <v>296435</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4">
         <v>906166</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4">
         <v>1713332</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4">
         <v>56806</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="4">
         <v>46971</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="4">
         <v>16779676</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="4">
         <v>56045</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="4">
         <v>38578</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="4">
         <v>95377</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4">
         <v>99628</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4">
         <v>14648</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="4">
         <v>39730</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="4">
         <v>54384</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="4">
         <v>98317</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="4">
         <v>835750</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="4">
         <v>93583</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="4">
         <v>274334</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="4">
         <v>99042</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="4">
         <v>37506</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="4">
         <v>108121</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="4">
         <v>29103</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="4">
         <v>167828</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="4">
         <v>113421</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="4">
         <v>28184</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="4">
         <v>674159</v>
